--- a/temp/pages/StructureDefinition-lrc-hospital-community-onco-lab-result.xlsx
+++ b/temp/pages/StructureDefinition-lrc-hospital-community-onco-lab-result.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:05:24+02:00</t>
+    <t>2024-02-22T18:39:46+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
